--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-0.35/avg_0.003_scores.xlsx
@@ -85,13 +85,13 @@
     <t>better</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
   </si>
   <si>
     <t>special</t>
@@ -1020,25 +1020,25 @@
         <v>23</v>
       </c>
       <c r="K14">
-        <v>0.6767241379310345</v>
+        <v>0.6732673267326733</v>
       </c>
       <c r="L14">
-        <v>157</v>
+        <v>68</v>
       </c>
       <c r="M14">
-        <v>164</v>
+        <v>73</v>
       </c>
       <c r="N14">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="O14">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P14" t="b">
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>75</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1046,25 +1046,25 @@
         <v>24</v>
       </c>
       <c r="K15">
-        <v>0.6732673267326733</v>
+        <v>0.6642857142857143</v>
       </c>
       <c r="L15">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="M15">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="N15">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="O15">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1072,25 +1072,25 @@
         <v>25</v>
       </c>
       <c r="K16">
-        <v>0.6642857142857143</v>
+        <v>0.6569037656903766</v>
       </c>
       <c r="L16">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="M16">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="N16">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>47</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1202,25 +1202,25 @@
         <v>30</v>
       </c>
       <c r="K21">
-        <v>0.5596330275229358</v>
+        <v>0.538235294117647</v>
       </c>
       <c r="L21">
         <v>183</v>
       </c>
       <c r="M21">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="N21">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="10:17">
